--- a/testCount.xlsx
+++ b/testCount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.thuy\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A1A49-FEDA-4AE8-82EA-2768F856A352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375EF82-1EB8-428A-8649-50B64C7E334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="890" windowWidth="8810" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>テキストボックス</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,38 @@
   </si>
   <si>
     <t>マネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>though</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てぃｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｓｍｆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｇｈどｇｂｖ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｘｖ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｖ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｘｃんれい２３４</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -364,27 +396,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
